--- a/data/trans_camb/P1404-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>9.592404016492276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10.89951928938439</v>
+        <v>10.89951928938438</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.266273318345391</v>
@@ -664,7 +664,7 @@
         <v>9.362237166803148</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>12.72516537386295</v>
+        <v>12.72516537386296</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.749665890514952</v>
+        <v>4.985730770344873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.667664633432411</v>
+        <v>6.155682092351086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.193552929295706</v>
+        <v>7.399088417351757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.146093277769101</v>
+        <v>4.938928562797487</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.22364866633664</v>
+        <v>5.375691098791535</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.42529634370621</v>
+        <v>10.71330692096051</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.932176256599427</v>
+        <v>6.026068836572705</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.640470595117718</v>
+        <v>6.776932928453311</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.09596992755352</v>
+        <v>9.967924104011432</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.66549821798624</v>
+        <v>12.05413574031657</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.400245820211</v>
+        <v>13.35031843465672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.68517794662062</v>
+        <v>14.57313273410608</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.59870785805309</v>
+        <v>11.45208603844083</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.76088286548534</v>
+        <v>12.93951702716862</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.17744835255233</v>
+        <v>17.22553100599279</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.7176215161969</v>
+        <v>10.80841285809271</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.9160537871502</v>
+        <v>11.7906827710245</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.34346873485481</v>
+        <v>15.06760745886714</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6782361461161349</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.770656442810443</v>
+        <v>0.7706564428104425</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4533681015841303</v>
@@ -760,7 +760,7 @@
         <v>0.5006203049720283</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7576305833364868</v>
+        <v>0.7576305833364865</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.505171357760854</v>
@@ -769,7 +769,7 @@
         <v>0.5696513895392497</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7742709363357227</v>
+        <v>0.7742709363357231</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3035368231968802</v>
+        <v>0.3190374865681614</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3586103838413218</v>
+        <v>0.3959525259087957</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4591346112582433</v>
+        <v>0.4714448968915378</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2584027849579099</v>
+        <v>0.2499155526175378</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2625655050841271</v>
+        <v>0.2813105105946502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5223351373147099</v>
+        <v>0.539846577271432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3351988271133035</v>
+        <v>0.3453396247206563</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3817507403767315</v>
+        <v>0.386094764907141</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5670289160044543</v>
+        <v>0.5708373632166219</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9059760485375373</v>
+        <v>0.9427717640212765</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.062304120312854</v>
+        <v>1.070687016519153</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.137813278826316</v>
+        <v>1.134020867828433</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.708782467676367</v>
+        <v>0.6880887503009069</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7646264580369621</v>
+        <v>0.7719701959938571</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.029976014225982</v>
+        <v>1.020600151460074</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6965992968016024</v>
+        <v>0.7149350980028161</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7754218583736179</v>
+        <v>0.7613476598630714</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.002291321367435</v>
+        <v>0.9782155868713149</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1647607417131534</v>
+        <v>-0.01575146400018438</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.005737942455814</v>
+        <v>0.7910136164115952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.556815209378784</v>
+        <v>5.658516525641875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3768285775912419</v>
+        <v>-0.499625347945338</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.002239443075154</v>
+        <v>0.8404151505817387</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.232167212479452</v>
+        <v>4.352490610131376</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2647441293559876</v>
+        <v>0.2826037248405844</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.319570783003234</v>
+        <v>1.321903014677744</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.464004986259914</v>
+        <v>5.491809768094233</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.47267259366005</v>
+        <v>3.387366529065847</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.227069755981097</v>
+        <v>4.0766396693579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.183690395457802</v>
+        <v>9.225274404983297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.197316420429892</v>
+        <v>3.061479567563282</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.393746061219083</v>
+        <v>4.342010179491446</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.50714092752186</v>
+        <v>7.554460263391586</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.701011511927144</v>
+        <v>2.589800664631469</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.769086319395911</v>
+        <v>3.723343781977143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.836803025237107</v>
+        <v>7.928170356149003</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02605574347474859</v>
+        <v>-0.004394858085267667</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1808827306348756</v>
+        <v>0.1238976660336042</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8797910213467519</v>
+        <v>0.9361363342718436</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06514171630058356</v>
+        <v>-0.08871106919059639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1581689475466212</v>
+        <v>0.1349081092876989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6341537006510544</v>
+        <v>0.6331136096839274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04487928068175874</v>
+        <v>0.0435208269221979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2153552396407178</v>
+        <v>0.2145372945235181</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8796126644739581</v>
+        <v>0.894798515384148</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.757071299363078</v>
+        <v>0.7838343617551617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.960634971932961</v>
+        <v>0.9056879147063333</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.074568569858485</v>
+        <v>2.095941268933078</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6770630456314772</v>
+        <v>0.6448294551563115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9587138094467232</v>
+        <v>0.9385563758338483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.614993709582107</v>
+        <v>1.602083950510652</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5511930091339924</v>
+        <v>0.5397823646084267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7757033803787187</v>
+        <v>0.7798962953137645</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.66758704709218</v>
+        <v>1.676724810069189</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.780861102795806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.071837038202141</v>
+        <v>7.071837038202139</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.4757375751996896</v>
@@ -1092,7 +1092,7 @@
         <v>2.852412667655429</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.42826258457876</v>
+        <v>7.428262584578762</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3897860211858203</v>
+        <v>-0.5274791979905452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7686146162769991</v>
+        <v>0.5884617680567691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.213421167636121</v>
+        <v>4.192643268971645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.274410870581074</v>
+        <v>-3.202889833085544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7577004855417161</v>
+        <v>-1.213778658245373</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.900108331928076</v>
+        <v>4.674393314160839</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8212265312378019</v>
+        <v>-0.8446178214379398</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8338947607435069</v>
+        <v>0.8053321865690393</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.333896075997325</v>
+        <v>5.476019976232105</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.892995251266711</v>
+        <v>5.985597536810355</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.753858478927268</v>
+        <v>6.835883407839052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.05178613226422</v>
+        <v>10.02955532268097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.363892840762318</v>
+        <v>2.376065435699316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.054624797635396</v>
+        <v>4.973578173778338</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.61341162993678</v>
+        <v>10.22670651408104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.424408705858315</v>
+        <v>3.247643234135548</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.036584792574686</v>
+        <v>5.046544413058958</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.517374812482696</v>
+        <v>9.37983330717325</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.6347351186621273</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.652979313456621</v>
+        <v>1.652979313456622</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08615818271553734</v>
+        <v>-0.100444093510838</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1021402208090504</v>
+        <v>0.0850842901386548</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6894809852235374</v>
+        <v>0.6704072692285741</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5667385441455194</v>
+        <v>-0.5630055649542022</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1927467375587079</v>
+        <v>-0.2379704068682873</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7641296392721423</v>
+        <v>0.7165884372941705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1618298765682883</v>
+        <v>-0.1515945762610521</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.142057850419625</v>
+        <v>0.1372612639482131</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9971819094767091</v>
+        <v>0.9648198969358249</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.708373640409019</v>
+        <v>1.725346067594427</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.89091714770927</v>
+        <v>1.938571926992651</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.887704305434859</v>
+        <v>2.955445752390365</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7988471943526425</v>
+        <v>0.8156557129527526</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.728896913407164</v>
+        <v>1.709284359759394</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.679050270503348</v>
+        <v>3.522994281464423</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9921833288173046</v>
+        <v>0.9356964543060773</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.413474215219001</v>
+        <v>1.429416408225235</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.734995565184901</v>
+        <v>2.678150651547177</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.521406878156376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.479687957705252</v>
+        <v>6.479687957705249</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.51883716154914</v>
@@ -1297,7 +1297,7 @@
         <v>2.984107241417344</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.798643413391743</v>
+        <v>5.798643413391746</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.4862952566594</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.884895616084705</v>
+        <v>1.938339078877061</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.141121430452765</v>
+        <v>2.225001716061196</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.081705717608332</v>
+        <v>4.926911068383961</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.801228302240901</v>
+        <v>2.007605933508448</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.322813455699663</v>
+        <v>1.381628205288834</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.383063763417513</v>
+        <v>4.351354982521509</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.310579144590713</v>
+        <v>2.356915988795119</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.17639116542433</v>
+        <v>2.15881876058631</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.093351469025236</v>
+        <v>5.093619898786096</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.959992182626026</v>
+        <v>4.883358926251056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.196342957973547</v>
+        <v>4.920945508885901</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.192882851711635</v>
+        <v>7.977008918731733</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.012658207526881</v>
+        <v>4.977716753170459</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.560935543274203</v>
+        <v>4.425690880561255</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.144643663731229</v>
+        <v>7.209558257580554</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.583787200825198</v>
+        <v>4.598749634825021</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.333813114398676</v>
+        <v>4.430420321452665</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.113884539054993</v>
+        <v>7.123663605362873</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4442635477548121</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8174826880389916</v>
+        <v>0.8174826880389913</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3415130198394042</v>
@@ -1402,7 +1402,7 @@
         <v>0.2896159807214311</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5627746133633158</v>
+        <v>0.562774613363316</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3817099105548296</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2173133702409657</v>
+        <v>0.2209530925415905</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2406502690851226</v>
+        <v>0.2523188289828022</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5886787719397856</v>
+        <v>0.5778549546924286</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1619844453151777</v>
+        <v>0.1800611565112392</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1195528225663447</v>
+        <v>0.123577319823409</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3908495029264896</v>
+        <v>0.3987086511010643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2369652826497133</v>
+        <v>0.2483199917505665</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2262071599271543</v>
+        <v>0.2234991622326434</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5166453838564641</v>
+        <v>0.5245211931160519</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6701414291614493</v>
+        <v>0.6773175576545388</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7098168614009021</v>
+        <v>0.6814975688632247</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.123653797131855</v>
+        <v>1.111447495081877</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5200583007709362</v>
+        <v>0.5175856061555111</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4838504809091537</v>
+        <v>0.4639105139562493</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7663757794369903</v>
+        <v>0.7698971831556854</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5275770622919955</v>
+        <v>0.5396085414908885</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4997598365499092</v>
+        <v>0.5195457344261237</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8175339006979625</v>
+        <v>0.8393091245572948</v>
       </c>
     </row>
     <row r="28">
